--- a/public/excel/mcc_troyes.xlsx
+++ b/public/excel/mcc_troyes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidannebicque/Sites/redigeTonBut/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A3829E-D6D0-494E-A136-A14E71B9C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AE8268-AD94-CD4E-B640-0634F198C9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="60">
   <si>
     <t xml:space="preserve">DOMAINE : </t>
   </si>
@@ -213,6 +213,9 @@
     <t>H.
 Projet</t>
   </si>
+  <si>
+    <t>Intitulé court (19 caractères)</t>
+  </si>
 </sst>
 </file>
 
@@ -1366,6 +1369,198 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1378,203 +1573,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1587,34 +1611,47 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2192,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:AX60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="55" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" topLeftCell="B21" zoomScale="112" zoomScaleNormal="55" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2218,25 +2255,25 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="159" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="161"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="124"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -2268,25 +2305,25 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="159" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="161"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -2316,25 +2353,25 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="159" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="161"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="124"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -2364,25 +2401,25 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="159" t="s">
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="124"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -2412,25 +2449,25 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="159" t="s">
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="161"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="124"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -2462,25 +2499,25 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="159">
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="122">
         <v>3</v>
       </c>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="161"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="124"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -2671,10 +2708,10 @@
       </c>
     </row>
     <row r="15" spans="1:44" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -2685,34 +2722,34 @@
       <c r="D16" s="16"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="N16" s="162" t="s">
+      <c r="N16" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="163"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="163"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="163"/>
-      <c r="AL16" s="163"/>
-      <c r="AM16" s="164"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="106"/>
+      <c r="AJ16" s="106"/>
+      <c r="AK16" s="106"/>
+      <c r="AL16" s="106"/>
+      <c r="AM16" s="107"/>
       <c r="AN16" s="29"/>
       <c r="AO16" s="101" t="s">
         <v>49</v>
@@ -2729,36 +2766,36 @@
       <c r="D17" s="16"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="N17" s="162" t="s">
+      <c r="N17" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="162" t="s">
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="163"/>
-      <c r="AF17" s="163"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="163"/>
-      <c r="AJ17" s="163"/>
-      <c r="AK17" s="163"/>
-      <c r="AL17" s="163"/>
-      <c r="AM17" s="164"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="106"/>
+      <c r="AK17" s="106"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="107"/>
       <c r="AN17" s="29"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="29"/>
@@ -2773,289 +2810,289 @@
       <c r="D18" s="16"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="N18" s="144" t="s">
+      <c r="N18" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="172" t="s">
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="144" t="s">
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="145"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="144" t="s">
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="145"/>
-      <c r="AM18" s="146"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="120"/>
       <c r="AN18" s="31"/>
-      <c r="AO18" s="152"/>
+      <c r="AO18" s="153"/>
       <c r="AP18" s="29"/>
-      <c r="AQ18" s="141"/>
+      <c r="AQ18" s="147"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="155" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="167" t="s">
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
-      <c r="N19" s="138" t="s">
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139" t="s">
+      <c r="O19" s="121"/>
+      <c r="P19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139" t="s">
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139" t="s">
+      <c r="S19" s="121"/>
+      <c r="T19" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="150"/>
-      <c r="V19" s="139" t="s">
+      <c r="U19" s="152"/>
+      <c r="V19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139" t="s">
+      <c r="W19" s="121"/>
+      <c r="X19" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="151" t="s">
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="147" t="s">
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="149" t="s">
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149" t="s">
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="151" t="s">
+      <c r="AG19" s="109"/>
+      <c r="AH19" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149" t="s">
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149" t="s">
+      <c r="AK19" s="108"/>
+      <c r="AL19" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AM19" s="171"/>
+      <c r="AM19" s="109"/>
       <c r="AN19" s="29"/>
-      <c r="AO19" s="153"/>
+      <c r="AO19" s="154"/>
       <c r="AP19" s="29"/>
-      <c r="AQ19" s="142"/>
+      <c r="AQ19" s="148"/>
     </row>
     <row r="20" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="135" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="129" t="s">
+      <c r="D20" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="165" t="s">
+      <c r="G20" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="169" t="s">
+      <c r="H20" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="133" t="s">
+      <c r="I20" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="185" t="s">
+      <c r="J20" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="170" t="s">
+      <c r="K20" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="137" t="s">
+      <c r="L20" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="118" t="s">
+      <c r="N20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="120" t="s">
+      <c r="O20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="120" t="s">
+      <c r="P20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="120" t="s">
+      <c r="Q20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="120" t="s">
+      <c r="R20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="120" t="s">
+      <c r="S20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="T20" s="120" t="s">
+      <c r="T20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="U20" s="125" t="s">
+      <c r="U20" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="118" t="s">
+      <c r="V20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="W20" s="120" t="s">
+      <c r="W20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="120" t="s">
+      <c r="X20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="Y20" s="125" t="s">
+      <c r="Y20" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="Z20" s="118" t="s">
+      <c r="Z20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AA20" s="120" t="s">
+      <c r="AA20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AB20" s="120" t="s">
+      <c r="AB20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AC20" s="120" t="s">
+      <c r="AC20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AD20" s="120" t="s">
+      <c r="AD20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AE20" s="120" t="s">
+      <c r="AE20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AF20" s="120" t="s">
+      <c r="AF20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AG20" s="125" t="s">
+      <c r="AG20" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="AH20" s="118" t="s">
+      <c r="AH20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AI20" s="120" t="s">
+      <c r="AI20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AJ20" s="120" t="s">
+      <c r="AJ20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AK20" s="120" t="s">
+      <c r="AK20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AL20" s="120" t="s">
+      <c r="AL20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AM20" s="125" t="s">
+      <c r="AM20" s="113" t="s">
         <v>31</v>
       </c>
       <c r="AN20" s="30"/>
-      <c r="AO20" s="153"/>
+      <c r="AO20" s="154"/>
       <c r="AP20" s="30"/>
-      <c r="AQ20" s="142"/>
+      <c r="AQ20" s="148"/>
     </row>
     <row r="21" spans="1:43" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="126"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="141"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="112"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="112"/>
+      <c r="AM21" s="114"/>
       <c r="AN21" s="30"/>
-      <c r="AO21" s="154"/>
+      <c r="AO21" s="155"/>
       <c r="AP21" s="30"/>
-      <c r="AQ21" s="143"/>
+      <c r="AQ21" s="149"/>
     </row>
     <row r="22" spans="1:43" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
@@ -4363,10 +4400,10 @@
       <c r="AQ50" s="55"/>
     </row>
     <row r="51" spans="1:50" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="157"/>
       <c r="C51" s="94" t="s">
         <v>55</v>
       </c>
@@ -4412,15 +4449,15 @@
       <c r="AE51" s="81"/>
       <c r="AF51" s="81"/>
       <c r="AG51" s="81"/>
-      <c r="AH51" s="109" t="s">
+      <c r="AH51" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
-      <c r="AL51" s="110"/>
-      <c r="AM51" s="110"/>
-      <c r="AN51" s="111"/>
+      <c r="AI51" s="173"/>
+      <c r="AJ51" s="173"/>
+      <c r="AK51" s="173"/>
+      <c r="AL51" s="173"/>
+      <c r="AM51" s="173"/>
+      <c r="AN51" s="157"/>
       <c r="AO51" s="86" t="s">
         <v>56</v>
       </c>
@@ -4428,19 +4465,19 @@
       <c r="AQ51" s="102"/>
     </row>
     <row r="52" spans="1:50" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
-      <c r="B52" s="114"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="96"/>
       <c r="D52" s="97"/>
       <c r="E52" s="83"/>
       <c r="F52" s="83"/>
-      <c r="G52" s="122">
+      <c r="G52" s="162">
         <f>G51+H51+J51</f>
         <v>0</v>
       </c>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="164"/>
       <c r="K52" s="83"/>
       <c r="L52" s="83"/>
       <c r="M52" s="83"/>
@@ -4464,13 +4501,13 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
-      <c r="AH52" s="112"/>
-      <c r="AI52" s="113"/>
-      <c r="AJ52" s="113"/>
-      <c r="AK52" s="113"/>
-      <c r="AL52" s="113"/>
-      <c r="AM52" s="113"/>
-      <c r="AN52" s="114"/>
+      <c r="AH52" s="158"/>
+      <c r="AI52" s="174"/>
+      <c r="AJ52" s="174"/>
+      <c r="AK52" s="174"/>
+      <c r="AL52" s="174"/>
+      <c r="AM52" s="174"/>
+      <c r="AN52" s="159"/>
       <c r="AO52" s="87" t="s">
         <v>41</v>
       </c>
@@ -4481,8 +4518,8 @@
       <c r="AV52" s="17"/>
     </row>
     <row r="53" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="112"/>
-      <c r="B53" s="114"/>
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="94"/>
       <c r="D53" s="95"/>
       <c r="E53" s="83"/>
@@ -4514,13 +4551,13 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="112"/>
-      <c r="AI53" s="113"/>
-      <c r="AJ53" s="113"/>
-      <c r="AK53" s="113"/>
-      <c r="AL53" s="113"/>
-      <c r="AM53" s="113"/>
-      <c r="AN53" s="114"/>
+      <c r="AH53" s="158"/>
+      <c r="AI53" s="174"/>
+      <c r="AJ53" s="174"/>
+      <c r="AK53" s="174"/>
+      <c r="AL53" s="174"/>
+      <c r="AM53" s="174"/>
+      <c r="AN53" s="159"/>
       <c r="AO53" s="88" t="s">
         <v>33</v>
       </c>
@@ -4528,8 +4565,8 @@
       <c r="AQ53" s="103"/>
     </row>
     <row r="54" spans="1:50" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="115"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="98"/>
       <c r="D54" s="99"/>
       <c r="E54" s="83"/>
@@ -4561,13 +4598,13 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="115"/>
-      <c r="AI54" s="116"/>
-      <c r="AJ54" s="116"/>
-      <c r="AK54" s="116"/>
-      <c r="AL54" s="116"/>
-      <c r="AM54" s="116"/>
-      <c r="AN54" s="117"/>
+      <c r="AH54" s="160"/>
+      <c r="AI54" s="175"/>
+      <c r="AJ54" s="175"/>
+      <c r="AK54" s="175"/>
+      <c r="AL54" s="175"/>
+      <c r="AM54" s="175"/>
+      <c r="AN54" s="161"/>
       <c r="AO54" s="89"/>
       <c r="AP54" s="89"/>
       <c r="AQ54" s="104" t="str">
@@ -4628,18 +4665,18 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="91"/>
-      <c r="H58" s="105" t="s">
+      <c r="H58" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="107"/>
-      <c r="Q58" s="108"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="170"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="170"/>
+      <c r="O58" s="170"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="172"/>
       <c r="R58" s="83"/>
       <c r="S58" s="83"/>
       <c r="T58" s="83"/>
@@ -4728,18 +4765,18 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60" s="105" t="s">
+      <c r="H60" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="107"/>
-      <c r="Q60" s="108"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="172"/>
       <c r="R60"/>
       <c r="S60"/>
       <c r="T60"/>
@@ -4772,6 +4809,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="AH51:AN54"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="A51:B54"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="AQ18:AQ21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AO18:AO21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:U6"/>
     <mergeCell ref="N16:AM16"/>
     <mergeCell ref="AF19:AG19"/>
     <mergeCell ref="AH19:AI19"/>
@@ -4788,82 +4893,14 @@
     <mergeCell ref="Z18:AG18"/>
     <mergeCell ref="AH18:AM18"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="AQ18:AQ21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AO18:AO21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="A51:B54"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="AH51:AN54"/>
   </mergeCells>
   <conditionalFormatting sqref="AP54">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>AND(ISNUMBER(AP54),OR(AP54&lt;40%,AP54&gt;60%))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ54">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(ISNUMBER(AQ54),OR(AQ54&lt;40%,AQ54&gt;60%))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4900,7 +4937,7 @@
   </sheetPr>
   <dimension ref="A1:AV60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="112" zoomScaleNormal="55" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="55" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="J20" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
@@ -4924,25 +4961,25 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="159" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="161"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="124"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -4972,25 +5009,25 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="159" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="161"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="124"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
@@ -5019,25 +5056,25 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="159" t="s">
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="161"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="124"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -5066,25 +5103,25 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="159" t="s">
+      <c r="G4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="159" t="s">
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="124"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -5113,25 +5150,25 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="159" t="s">
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="161"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="124"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -5162,25 +5199,25 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="159">
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="122">
         <v>3</v>
       </c>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="161"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="123"/>
+      <c r="U6" s="124"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -5368,10 +5405,10 @@
       </c>
     </row>
     <row r="15" spans="1:42" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -5382,34 +5419,34 @@
       <c r="D16" s="100"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="N16" s="162" t="s">
+      <c r="N16" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="163"/>
-      <c r="AF16" s="163"/>
-      <c r="AG16" s="163"/>
-      <c r="AH16" s="163"/>
-      <c r="AI16" s="163"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="163"/>
-      <c r="AL16" s="163"/>
-      <c r="AM16" s="164"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="106"/>
+      <c r="AJ16" s="106"/>
+      <c r="AK16" s="106"/>
+      <c r="AL16" s="106"/>
+      <c r="AM16" s="107"/>
       <c r="AN16" s="29"/>
       <c r="AO16" s="101" t="s">
         <v>40</v>
@@ -5422,36 +5459,36 @@
       <c r="D17" s="100"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="N17" s="162" t="s">
+      <c r="N17" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="162" t="s">
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="163"/>
-      <c r="AF17" s="163"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="163"/>
-      <c r="AJ17" s="163"/>
-      <c r="AK17" s="163"/>
-      <c r="AL17" s="163"/>
-      <c r="AM17" s="164"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="106"/>
+      <c r="AK17" s="106"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="107"/>
       <c r="AN17" s="29"/>
       <c r="AO17" s="19" t="s">
         <v>39</v>
@@ -5464,281 +5501,281 @@
       <c r="D18" s="100"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="N18" s="144" t="s">
+      <c r="N18" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="172" t="s">
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="174"/>
-      <c r="Z18" s="144" t="s">
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="145"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="144" t="s">
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="145"/>
-      <c r="AM18" s="146"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="120"/>
       <c r="AN18" s="31"/>
-      <c r="AO18" s="141"/>
+      <c r="AO18" s="147"/>
     </row>
     <row r="19" spans="1:41" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="155" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="167" t="s">
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
-      <c r="N19" s="138" t="s">
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139" t="s">
+      <c r="O19" s="121"/>
+      <c r="P19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139" t="s">
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139" t="s">
+      <c r="S19" s="121"/>
+      <c r="T19" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="150"/>
-      <c r="V19" s="139" t="s">
+      <c r="U19" s="152"/>
+      <c r="V19" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139" t="s">
+      <c r="W19" s="121"/>
+      <c r="X19" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="151" t="s">
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="147" t="s">
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="149" t="s">
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149" t="s">
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="171"/>
-      <c r="AH19" s="151" t="s">
+      <c r="AG19" s="109"/>
+      <c r="AH19" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="AI19" s="149"/>
-      <c r="AJ19" s="149" t="s">
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AK19" s="149"/>
-      <c r="AL19" s="149" t="s">
+      <c r="AK19" s="108"/>
+      <c r="AL19" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AM19" s="171"/>
+      <c r="AM19" s="109"/>
       <c r="AN19" s="29"/>
-      <c r="AO19" s="142"/>
+      <c r="AO19" s="148"/>
     </row>
     <row r="20" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="165" t="s">
+      <c r="G20" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="169" t="s">
+      <c r="H20" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="133" t="s">
+      <c r="I20" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="185" t="s">
+      <c r="J20" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="170" t="s">
+      <c r="K20" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="137" t="s">
+      <c r="L20" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="118" t="s">
+      <c r="N20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="120" t="s">
+      <c r="O20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="120" t="s">
+      <c r="P20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="Q20" s="120" t="s">
+      <c r="Q20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="120" t="s">
+      <c r="R20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="120" t="s">
+      <c r="S20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="T20" s="120" t="s">
+      <c r="T20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="U20" s="125" t="s">
+      <c r="U20" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="118" t="s">
+      <c r="V20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="W20" s="120" t="s">
+      <c r="W20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="X20" s="120" t="s">
+      <c r="X20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="Y20" s="125" t="s">
+      <c r="Y20" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="Z20" s="118" t="s">
+      <c r="Z20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AA20" s="120" t="s">
+      <c r="AA20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AB20" s="120" t="s">
+      <c r="AB20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AC20" s="120" t="s">
+      <c r="AC20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AD20" s="120" t="s">
+      <c r="AD20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AE20" s="120" t="s">
+      <c r="AE20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AF20" s="120" t="s">
+      <c r="AF20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AG20" s="125" t="s">
+      <c r="AG20" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="AH20" s="118" t="s">
+      <c r="AH20" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="AI20" s="120" t="s">
+      <c r="AI20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AJ20" s="120" t="s">
+      <c r="AJ20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AK20" s="120" t="s">
+      <c r="AK20" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AL20" s="120" t="s">
+      <c r="AL20" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AM20" s="125" t="s">
+      <c r="AM20" s="113" t="s">
         <v>31</v>
       </c>
       <c r="AN20" s="30"/>
-      <c r="AO20" s="142"/>
+      <c r="AO20" s="148"/>
     </row>
     <row r="21" spans="1:41" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="126"/>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="126"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="114"/>
+      <c r="AH21" s="141"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="112"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="112"/>
+      <c r="AM21" s="114"/>
       <c r="AN21" s="30"/>
-      <c r="AO21" s="143"/>
+      <c r="AO21" s="149"/>
     </row>
     <row r="22" spans="1:41" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
@@ -6988,14 +7025,14 @@
       <c r="AO50" s="55"/>
     </row>
     <row r="51" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="175" t="s">
+      <c r="B51" s="157"/>
+      <c r="C51" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="176"/>
+      <c r="D51" s="183"/>
       <c r="E51" s="79"/>
       <c r="F51" s="79"/>
       <c r="G51" s="80">
@@ -7037,33 +7074,33 @@
       <c r="AE51" s="81"/>
       <c r="AF51" s="81"/>
       <c r="AG51" s="81"/>
-      <c r="AH51" s="109" t="s">
+      <c r="AH51" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="AI51" s="110"/>
-      <c r="AJ51" s="110"/>
-      <c r="AK51" s="110"/>
-      <c r="AL51" s="179" t="s">
+      <c r="AI51" s="173"/>
+      <c r="AJ51" s="173"/>
+      <c r="AK51" s="173"/>
+      <c r="AL51" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="AM51" s="180"/>
-      <c r="AN51" s="181"/>
+      <c r="AM51" s="177"/>
+      <c r="AN51" s="178"/>
       <c r="AO51" s="102"/>
     </row>
     <row r="52" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="178"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="185"/>
       <c r="E52" s="83"/>
       <c r="F52" s="83"/>
-      <c r="G52" s="122">
+      <c r="G52" s="162">
         <f>G51+H51+J51</f>
         <v>0</v>
       </c>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="124"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="164"/>
       <c r="K52" s="83"/>
       <c r="L52" s="83"/>
       <c r="M52" s="83"/>
@@ -7087,15 +7124,15 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
-      <c r="AH52" s="112"/>
-      <c r="AI52" s="113"/>
-      <c r="AJ52" s="113"/>
-      <c r="AK52" s="113"/>
-      <c r="AL52" s="182" t="s">
+      <c r="AH52" s="158"/>
+      <c r="AI52" s="174"/>
+      <c r="AJ52" s="174"/>
+      <c r="AK52" s="174"/>
+      <c r="AL52" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="AM52" s="183"/>
-      <c r="AN52" s="184"/>
+      <c r="AM52" s="180"/>
+      <c r="AN52" s="181"/>
       <c r="AO52" s="85">
         <f>SUM(AO22:AO49)</f>
         <v>0</v>
@@ -7105,8 +7142,8 @@
       <c r="AT52" s="17"/>
     </row>
     <row r="53" spans="1:48" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="112"/>
-      <c r="B53" s="114"/>
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="94"/>
       <c r="D53" s="95"/>
       <c r="E53" s="83"/>
@@ -7138,20 +7175,20 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
-      <c r="AH53" s="112"/>
-      <c r="AI53" s="113"/>
-      <c r="AJ53" s="113"/>
-      <c r="AK53" s="113"/>
-      <c r="AL53" s="109" t="s">
+      <c r="AH53" s="158"/>
+      <c r="AI53" s="174"/>
+      <c r="AJ53" s="174"/>
+      <c r="AK53" s="174"/>
+      <c r="AL53" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="AM53" s="110"/>
-      <c r="AN53" s="111"/>
+      <c r="AM53" s="173"/>
+      <c r="AN53" s="157"/>
       <c r="AO53" s="103"/>
     </row>
     <row r="54" spans="1:48" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="115"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="98"/>
       <c r="D54" s="99"/>
       <c r="E54" s="83"/>
@@ -7183,13 +7220,13 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
-      <c r="AH54" s="115"/>
-      <c r="AI54" s="116"/>
-      <c r="AJ54" s="116"/>
-      <c r="AK54" s="116"/>
-      <c r="AL54" s="115"/>
-      <c r="AM54" s="116"/>
-      <c r="AN54" s="117"/>
+      <c r="AH54" s="160"/>
+      <c r="AI54" s="175"/>
+      <c r="AJ54" s="175"/>
+      <c r="AK54" s="175"/>
+      <c r="AL54" s="160"/>
+      <c r="AM54" s="175"/>
+      <c r="AN54" s="161"/>
       <c r="AO54" s="104" t="str">
         <f t="shared" ref="AO54" si="0">IFERROR(AO53/AO52,"")</f>
         <v/>
@@ -7246,18 +7283,18 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="91"/>
-      <c r="H58" s="105" t="s">
+      <c r="H58" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="107"/>
-      <c r="Q58" s="108"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
+      <c r="L58" s="170"/>
+      <c r="M58" s="170"/>
+      <c r="N58" s="170"/>
+      <c r="O58" s="170"/>
+      <c r="P58" s="171"/>
+      <c r="Q58" s="172"/>
       <c r="R58" s="83"/>
       <c r="S58" s="83"/>
       <c r="T58" s="83"/>
@@ -7342,18 +7379,18 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60" s="105" t="s">
+      <c r="H60" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="107"/>
-      <c r="Q60" s="108"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="170"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="171"/>
+      <c r="Q60" s="172"/>
       <c r="R60"/>
       <c r="S60"/>
       <c r="T60"/>
@@ -7386,12 +7423,71 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="AL51:AN51"/>
-    <mergeCell ref="AL52:AN52"/>
-    <mergeCell ref="AH51:AK54"/>
-    <mergeCell ref="AL53:AN54"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="N16:AM16"/>
+    <mergeCell ref="N17:Y17"/>
+    <mergeCell ref="Z17:AM17"/>
+    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AO18:AO21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="AM20:AM21"/>
     <mergeCell ref="A51:B54"/>
     <mergeCell ref="G52:J52"/>
@@ -7408,74 +7504,15 @@
     <mergeCell ref="AB20:AB21"/>
     <mergeCell ref="AC20:AC21"/>
     <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="AO18:AO21"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="N16:AM16"/>
-    <mergeCell ref="N17:Y17"/>
-    <mergeCell ref="Z17:AM17"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="AL51:AN51"/>
+    <mergeCell ref="AL52:AN52"/>
+    <mergeCell ref="AH51:AK54"/>
+    <mergeCell ref="AL53:AN54"/>
   </mergeCells>
   <conditionalFormatting sqref="AO54">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(ISNUMBER(AO54),OR(AO54&lt;40%,AO54&gt;60%))</formula>
     </cfRule>
   </conditionalFormatting>
